--- a/note/2020-06-13-NoSQL/2020-10-09-MongoDB/2020-06-13-备份与恢复/备份与恢复的方案对比-2020-06-15.xlsx
+++ b/note/2020-06-13-NoSQL/2020-10-09-MongoDB/2020-06-13-备份与恢复/备份与恢复的方案对比-2020-06-15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>数据占用磁盘的空间大小</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>备份工具：mongodump 恢复工具：mongorestore</t>
+  </si>
+  <si>
+    <t>db3 和 db4 的机器配置：云服务器，4核 CPU、16GB内存、200GB的SSD盘。</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,19 +170,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,41 +209,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,49 +233,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,11 +482,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +545,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,52 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B18" sqref="B18:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1245,16 +1248,55 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B14:D16"/>
+    <mergeCell ref="B18:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
